--- a/ISRaD_data_files/Lang_2023.xlsx
+++ b/ISRaD_data_files/Lang_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF7CF1D-336A-432B-A3BA-26EA3620AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{131444F0-CC56-45D9-A3A6-47448757ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3741" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1112">
   <si>
     <t>curator_name</t>
   </si>
@@ -4105,24 +4105,6 @@
     <t>Ashley K. Lang, Jennifer Pett-Ridge, Karis J. McFarlane, Richard P. Phillips, 2023, Climate, soil mineralogy and mycorrhizal fungi influence soil organic matter fractions in eastern US temperate forests, Journal of Ecology, 111, 1254–1269.</t>
   </si>
   <si>
-    <t>Treehaven (TREE)</t>
-  </si>
-  <si>
-    <t>Bartlett Experimental Forest (BART)</t>
-  </si>
-  <si>
-    <t>Harvard Forest (HARV)</t>
-  </si>
-  <si>
-    <t>Smithsonian Environmental Research Center (SERC)</t>
-  </si>
-  <si>
-    <t>Dead Lake (DELA)</t>
-  </si>
-  <si>
-    <t>Lenoir Landing (LENO)</t>
-  </si>
-  <si>
     <t>BART_032</t>
   </si>
   <si>
@@ -4444,8 +4426,25 @@
     <t>CAMS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Samples from ORNL were not included in isotope analyses due to 14C contamination from a nearby hazardous waste incinerator, therefore data from ORNL were not entered in the ISRAD template; depth of soil sampling was 30 cm or less in cases where unless rocks or other site characteristics prevented coring to this depth but specific depths were not published;  some samples were composites of multiple cores but was not indicated which ones;  clay content only available as average per site; Samples were not pre-treated to remove carbonates due to the relatively acidic conditions observed in soils from these sites; mean soil pH in each site ranged
-from 4.33 (BART) to 5.54 (DELA)</t>
+    <t xml:space="preserve"> Samples from ORNL were not included in isotope analyses due to 14C contamination from a nearby hazardous waste incinerator, therefore data from ORNL were not entered in the ISRAD template; depth of soil sampling wasreported to be 30 cm or shallower but specific depths were obtained from Ashley;  only few organic horizon samples were composites so not the mineral soils; sand silt and clay content only available as average per site (obtained from Ashley); Samples were not pre-treated to remove carbonates due to the relatively acidic conditions observed in soils from these sites; mean soil pH in each site ranged from 4.33 (BART) to 5.54 (DELA)</t>
+  </si>
+  <si>
+    <t>Treehaven_TREE</t>
+  </si>
+  <si>
+    <t>BartlettExperimentalForest_BART</t>
+  </si>
+  <si>
+    <t>HarvardForest_HARV</t>
+  </si>
+  <si>
+    <t>SmithsonianEnvironmentalResearchCenter_SERC</t>
+  </si>
+  <si>
+    <t>DeadLake_DELA</t>
+  </si>
+  <si>
+    <t>LenoirLanding_LENO</t>
   </si>
 </sst>
 </file>
@@ -5875,10 +5874,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="408">
@@ -6633,8 +6632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6824,10 +6823,10 @@
         <v>2025</v>
       </c>
       <c r="H4" s="121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="121">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>994</v>
@@ -6842,7 +6841,7 @@
         <v>997</v>
       </c>
       <c r="N4" s="123" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O4" s="121"/>
       <c r="P4" s="134">
@@ -7879,13 +7878,13 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" style="9" customWidth="1"/>
     <col min="4" max="4" width="12.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
@@ -7963,13 +7962,13 @@
       <c r="A4" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B4" s="178" t="s">
-        <v>998</v>
-      </c>
-      <c r="C4" s="171">
+      <c r="B4" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C4" s="178">
         <v>45.493690000000001</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="178">
         <v>-89.585710000000006</v>
       </c>
       <c r="E4" s="124"/>
@@ -7981,13 +7980,13 @@
       <c r="A5" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B5" s="178" t="s">
-        <v>999</v>
-      </c>
-      <c r="C5" s="171">
+      <c r="B5" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C5" s="178">
         <v>44.063889000000003</v>
       </c>
-      <c r="D5" s="171">
+      <c r="D5" s="178">
         <v>-71.287374999999997</v>
       </c>
       <c r="E5" s="124"/>
@@ -7999,13 +7998,13 @@
       <c r="A6" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B6" s="179" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="171">
+      <c r="B6" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C6" s="178">
         <v>42.536909999999999</v>
       </c>
-      <c r="D6" s="171">
+      <c r="D6" s="178">
         <v>-72.172650000000004</v>
       </c>
       <c r="E6" s="124"/>
@@ -8017,13 +8016,13 @@
       <c r="A7" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B7" s="178" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="171">
+      <c r="B7" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C7" s="178">
         <v>38.890130999999997</v>
       </c>
-      <c r="D7" s="171">
+      <c r="D7" s="178">
         <v>-76.560013999999995</v>
       </c>
       <c r="E7" s="124"/>
@@ -8035,13 +8034,13 @@
       <c r="A8" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B8" s="179" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="171">
+      <c r="B8" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C8" s="178">
         <v>32.541727000000002</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="178">
         <v>-87.803877</v>
       </c>
       <c r="E8" s="12"/>
@@ -8053,13 +8052,13 @@
       <c r="A9" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B9" s="179" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C9" s="171">
+      <c r="B9" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C9" s="178">
         <v>31.853860999999998</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="178">
         <v>-88.161180999999999</v>
       </c>
       <c r="E9" s="12"/>
@@ -9219,13 +9218,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" style="9" customWidth="1"/>
@@ -9723,14 +9722,14 @@
       <c r="A4" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B4" s="178" t="s">
-        <v>999</v>
+      <c r="B4" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D4" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -9742,7 +9741,7 @@
       <c r="K4" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="7"/>
       <c r="M4">
         <v>6.2</v>
       </c>
@@ -9755,7 +9754,7 @@
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>645</v>
@@ -9775,7 +9774,7 @@
         <v>852</v>
       </c>
       <c r="AC4" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
@@ -9787,7 +9786,7 @@
         <v>180</v>
       </c>
       <c r="AK4" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
@@ -9799,14 +9798,14 @@
       <c r="A5" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D5" t="s">
         <v>999</v>
       </c>
-      <c r="D5" t="s">
-        <v>1005</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -9818,7 +9817,7 @@
       <c r="K5" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="7"/>
       <c r="M5">
         <v>6.2</v>
       </c>
@@ -9831,7 +9830,7 @@
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>645</v>
@@ -9852,7 +9851,7 @@
         <v>852</v>
       </c>
       <c r="AC5" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
@@ -9864,7 +9863,7 @@
         <v>180</v>
       </c>
       <c r="AK5" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
@@ -9876,14 +9875,14 @@
       <c r="A6" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B6" s="178" t="s">
-        <v>999</v>
+      <c r="B6" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -9895,7 +9894,7 @@
       <c r="K6" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="7"/>
       <c r="M6">
         <v>6.2</v>
       </c>
@@ -9908,7 +9907,7 @@
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>645</v>
@@ -9929,7 +9928,7 @@
         <v>852</v>
       </c>
       <c r="AC6" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
@@ -9941,7 +9940,7 @@
         <v>180</v>
       </c>
       <c r="AK6" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
@@ -9953,14 +9952,14 @@
       <c r="A7" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B7" s="178" t="s">
-        <v>999</v>
+      <c r="B7" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D7" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -9972,7 +9971,7 @@
       <c r="K7" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="7"/>
       <c r="M7">
         <v>6.2</v>
       </c>
@@ -9985,7 +9984,7 @@
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>645</v>
@@ -10006,7 +10005,7 @@
         <v>852</v>
       </c>
       <c r="AC7" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
@@ -10018,7 +10017,7 @@
         <v>180</v>
       </c>
       <c r="AK7" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
@@ -10030,14 +10029,14 @@
       <c r="A8" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B8" s="178" t="s">
-        <v>999</v>
+      <c r="B8" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D8" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10049,7 +10048,7 @@
       <c r="K8" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="7"/>
       <c r="M8">
         <v>6.2</v>
       </c>
@@ -10062,7 +10061,7 @@
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>645</v>
@@ -10084,7 +10083,7 @@
         <v>852</v>
       </c>
       <c r="AC8" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
@@ -10096,7 +10095,7 @@
         <v>180</v>
       </c>
       <c r="AK8" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
@@ -10108,14 +10107,14 @@
       <c r="A9" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B9" s="178" t="s">
-        <v>999</v>
+      <c r="B9" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D9" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10127,7 +10126,7 @@
       <c r="K9" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="7"/>
       <c r="M9">
         <v>6.2</v>
       </c>
@@ -10140,7 +10139,7 @@
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>645</v>
@@ -10161,7 +10160,7 @@
         <v>852</v>
       </c>
       <c r="AC9" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
@@ -10173,7 +10172,7 @@
         <v>180</v>
       </c>
       <c r="AK9" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
@@ -10185,14 +10184,14 @@
       <c r="A10" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B10" s="178" t="s">
-        <v>999</v>
+      <c r="B10" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="D10" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>292</v>
@@ -10210,7 +10209,7 @@
         <v>801</v>
       </c>
       <c r="R10" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>645</v>
@@ -10230,7 +10229,7 @@
         <v>852</v>
       </c>
       <c r="AC10" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AI10" s="3" t="s">
         <v>169</v>
@@ -10239,21 +10238,21 @@
         <v>180</v>
       </c>
       <c r="AK10" s="173" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B11" s="179" t="s">
-        <v>1002</v>
+      <c r="B11" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>292</v>
@@ -10271,7 +10270,7 @@
         <v>802</v>
       </c>
       <c r="R11" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>645</v>
@@ -10289,7 +10288,7 @@
         <v>852</v>
       </c>
       <c r="AC11" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI11" s="3" t="s">
         <v>207</v>
@@ -10298,21 +10297,21 @@
         <v>180</v>
       </c>
       <c r="AK11" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B12" s="179" t="s">
-        <v>1002</v>
+      <c r="B12" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D12" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>292</v>
@@ -10330,7 +10329,7 @@
         <v>802</v>
       </c>
       <c r="R12" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S12" s="12" t="s">
         <v>645</v>
@@ -10348,7 +10347,7 @@
         <v>852</v>
       </c>
       <c r="AC12" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI12" s="3" t="s">
         <v>207</v>
@@ -10357,21 +10356,21 @@
         <v>180</v>
       </c>
       <c r="AK12" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B13" s="179" t="s">
-        <v>1002</v>
+      <c r="B13" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D13" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>292</v>
@@ -10389,7 +10388,7 @@
         <v>802</v>
       </c>
       <c r="R13" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>645</v>
@@ -10407,7 +10406,7 @@
         <v>852</v>
       </c>
       <c r="AC13" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI13" s="3" t="s">
         <v>207</v>
@@ -10416,21 +10415,21 @@
         <v>180</v>
       </c>
       <c r="AK13" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B14" s="179" t="s">
-        <v>1002</v>
+      <c r="B14" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D14" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>292</v>
@@ -10448,7 +10447,7 @@
         <v>802</v>
       </c>
       <c r="R14" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>645</v>
@@ -10466,7 +10465,7 @@
         <v>852</v>
       </c>
       <c r="AC14" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>207</v>
@@ -10475,21 +10474,21 @@
         <v>180</v>
       </c>
       <c r="AK14" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="15" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B15" s="179" t="s">
-        <v>1002</v>
+      <c r="B15" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D15" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>292</v>
@@ -10507,7 +10506,7 @@
         <v>802</v>
       </c>
       <c r="R15" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S15" s="12" t="s">
         <v>645</v>
@@ -10525,7 +10524,7 @@
         <v>852</v>
       </c>
       <c r="AC15" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI15" s="3" t="s">
         <v>207</v>
@@ -10534,21 +10533,21 @@
         <v>180</v>
       </c>
       <c r="AK15" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B16" s="179" t="s">
-        <v>1002</v>
+      <c r="B16" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D16" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>292</v>
@@ -10566,7 +10565,7 @@
         <v>802</v>
       </c>
       <c r="R16" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>645</v>
@@ -10584,7 +10583,7 @@
         <v>852</v>
       </c>
       <c r="AC16" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>207</v>
@@ -10593,21 +10592,21 @@
         <v>180</v>
       </c>
       <c r="AK16" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B17" s="179" t="s">
-        <v>1002</v>
+      <c r="B17" s="7" t="s">
+        <v>1110</v>
       </c>
       <c r="D17" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>292</v>
@@ -10625,7 +10624,7 @@
         <v>802</v>
       </c>
       <c r="R17" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>645</v>
@@ -10643,7 +10642,7 @@
         <v>852</v>
       </c>
       <c r="AC17" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>207</v>
@@ -10652,21 +10651,21 @@
         <v>180</v>
       </c>
       <c r="AK17" s="174" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B18" s="179" t="s">
-        <v>1000</v>
+      <c r="B18" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D18" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>292</v>
@@ -10684,7 +10683,7 @@
         <v>798</v>
       </c>
       <c r="R18" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>645</v>
@@ -10702,7 +10701,7 @@
         <v>852</v>
       </c>
       <c r="AC18" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI18" s="3" t="s">
         <v>199</v>
@@ -10711,21 +10710,21 @@
         <v>180</v>
       </c>
       <c r="AK18" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B19" s="179" t="s">
-        <v>1000</v>
+      <c r="B19" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D19" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>292</v>
@@ -10743,7 +10742,7 @@
         <v>798</v>
       </c>
       <c r="R19" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>645</v>
@@ -10761,7 +10760,7 @@
         <v>852</v>
       </c>
       <c r="AC19" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>199</v>
@@ -10770,21 +10769,21 @@
         <v>180</v>
       </c>
       <c r="AK19" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B20" s="179" t="s">
-        <v>1000</v>
+      <c r="B20" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D20" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>292</v>
@@ -10802,7 +10801,7 @@
         <v>798</v>
       </c>
       <c r="R20" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>645</v>
@@ -10820,7 +10819,7 @@
         <v>852</v>
       </c>
       <c r="AC20" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI20" s="3" t="s">
         <v>199</v>
@@ -10829,21 +10828,21 @@
         <v>180</v>
       </c>
       <c r="AK20" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B21" s="179" t="s">
-        <v>1000</v>
+      <c r="B21" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D21" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>292</v>
@@ -10861,7 +10860,7 @@
         <v>798</v>
       </c>
       <c r="R21" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S21" s="12" t="s">
         <v>645</v>
@@ -10879,7 +10878,7 @@
         <v>852</v>
       </c>
       <c r="AC21" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI21" s="3" t="s">
         <v>199</v>
@@ -10888,21 +10887,21 @@
         <v>180</v>
       </c>
       <c r="AK21" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B22" s="179" t="s">
-        <v>1000</v>
+      <c r="B22" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D22" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>292</v>
@@ -10920,7 +10919,7 @@
         <v>798</v>
       </c>
       <c r="R22" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>645</v>
@@ -10938,7 +10937,7 @@
         <v>852</v>
       </c>
       <c r="AC22" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI22" s="3" t="s">
         <v>199</v>
@@ -10947,21 +10946,21 @@
         <v>180</v>
       </c>
       <c r="AK22" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="179" t="s">
-        <v>1000</v>
+      <c r="B23" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D23" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>292</v>
@@ -10979,7 +10978,7 @@
         <v>798</v>
       </c>
       <c r="R23" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>645</v>
@@ -10997,7 +10996,7 @@
         <v>852</v>
       </c>
       <c r="AC23" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI23" s="3" t="s">
         <v>199</v>
@@ -11006,21 +11005,21 @@
         <v>180</v>
       </c>
       <c r="AK23" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B24" s="179" t="s">
-        <v>1000</v>
+      <c r="B24" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D24" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>292</v>
@@ -11038,7 +11037,7 @@
         <v>798</v>
       </c>
       <c r="R24" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S24" s="12" t="s">
         <v>645</v>
@@ -11056,7 +11055,7 @@
         <v>852</v>
       </c>
       <c r="AC24" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI24" s="3" t="s">
         <v>199</v>
@@ -11065,21 +11064,21 @@
         <v>180</v>
       </c>
       <c r="AK24" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B25" s="179" t="s">
-        <v>1000</v>
+      <c r="B25" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="D25" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>292</v>
@@ -11097,7 +11096,7 @@
         <v>798</v>
       </c>
       <c r="R25" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="S25" s="12" t="s">
         <v>645</v>
@@ -11115,7 +11114,7 @@
         <v>852</v>
       </c>
       <c r="AC25" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AI25" s="3" t="s">
         <v>199</v>
@@ -11124,21 +11123,21 @@
         <v>180</v>
       </c>
       <c r="AK25" s="174" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B26" s="179" t="s">
-        <v>1003</v>
+      <c r="B26" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D26" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>292</v>
@@ -11156,7 +11155,7 @@
         <v>798</v>
       </c>
       <c r="R26" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S26" s="12" t="s">
         <v>645</v>
@@ -11174,7 +11173,7 @@
         <v>852</v>
       </c>
       <c r="AC26" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI26" s="3" t="s">
         <v>207</v>
@@ -11183,21 +11182,21 @@
         <v>180</v>
       </c>
       <c r="AK26" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B27" s="179" t="s">
-        <v>1003</v>
+      <c r="B27" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D27" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>292</v>
@@ -11215,7 +11214,7 @@
         <v>798</v>
       </c>
       <c r="R27" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>645</v>
@@ -11233,7 +11232,7 @@
         <v>852</v>
       </c>
       <c r="AC27" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI27" s="3" t="s">
         <v>207</v>
@@ -11242,21 +11241,21 @@
         <v>180</v>
       </c>
       <c r="AK27" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B28" s="179" t="s">
-        <v>1003</v>
+      <c r="B28" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D28" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>292</v>
@@ -11274,7 +11273,7 @@
         <v>798</v>
       </c>
       <c r="R28" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>645</v>
@@ -11292,7 +11291,7 @@
         <v>852</v>
       </c>
       <c r="AC28" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>207</v>
@@ -11301,21 +11300,21 @@
         <v>180</v>
       </c>
       <c r="AK28" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B29" s="179" t="s">
-        <v>1003</v>
+      <c r="B29" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D29" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>292</v>
@@ -11333,7 +11332,7 @@
         <v>798</v>
       </c>
       <c r="R29" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>645</v>
@@ -11351,7 +11350,7 @@
         <v>852</v>
       </c>
       <c r="AC29" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>207</v>
@@ -11360,21 +11359,21 @@
         <v>180</v>
       </c>
       <c r="AK29" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B30" s="179" t="s">
-        <v>1003</v>
+      <c r="B30" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D30" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>292</v>
@@ -11392,7 +11391,7 @@
         <v>798</v>
       </c>
       <c r="R30" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>645</v>
@@ -11410,7 +11409,7 @@
         <v>852</v>
       </c>
       <c r="AC30" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI30" s="3" t="s">
         <v>207</v>
@@ -11419,21 +11418,21 @@
         <v>180</v>
       </c>
       <c r="AK30" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B31" s="179" t="s">
-        <v>1003</v>
+      <c r="B31" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="D31" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>292</v>
@@ -11451,7 +11450,7 @@
         <v>798</v>
       </c>
       <c r="R31" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="S31" s="12" t="s">
         <v>645</v>
@@ -11469,7 +11468,7 @@
         <v>852</v>
       </c>
       <c r="AC31" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AI31" s="3" t="s">
         <v>207</v>
@@ -11478,21 +11477,21 @@
         <v>180</v>
       </c>
       <c r="AK31" s="174" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B32" s="178" t="s">
-        <v>1001</v>
+      <c r="B32" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D32" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>292</v>
@@ -11510,7 +11509,7 @@
         <v>798</v>
       </c>
       <c r="R32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>645</v>
@@ -11528,7 +11527,7 @@
         <v>852</v>
       </c>
       <c r="AC32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI32" s="3" t="s">
         <v>207</v>
@@ -11537,21 +11536,21 @@
         <v>190</v>
       </c>
       <c r="AK32" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B33" s="178" t="s">
-        <v>1001</v>
+      <c r="B33" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D33" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>292</v>
@@ -11569,7 +11568,7 @@
         <v>798</v>
       </c>
       <c r="R33" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S33" s="12" t="s">
         <v>645</v>
@@ -11587,7 +11586,7 @@
         <v>852</v>
       </c>
       <c r="AC33" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI33" s="3" t="s">
         <v>207</v>
@@ -11596,21 +11595,21 @@
         <v>190</v>
       </c>
       <c r="AK33" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B34" s="178" t="s">
-        <v>1001</v>
+      <c r="B34" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D34" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>292</v>
@@ -11628,7 +11627,7 @@
         <v>798</v>
       </c>
       <c r="R34" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S34" s="12" t="s">
         <v>645</v>
@@ -11646,7 +11645,7 @@
         <v>852</v>
       </c>
       <c r="AC34" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI34" s="3" t="s">
         <v>207</v>
@@ -11655,21 +11654,21 @@
         <v>190</v>
       </c>
       <c r="AK34" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B35" s="178" t="s">
-        <v>1001</v>
+      <c r="B35" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D35" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>292</v>
@@ -11687,7 +11686,7 @@
         <v>798</v>
       </c>
       <c r="R35" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>645</v>
@@ -11705,7 +11704,7 @@
         <v>852</v>
       </c>
       <c r="AC35" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI35" s="3" t="s">
         <v>207</v>
@@ -11714,21 +11713,21 @@
         <v>190</v>
       </c>
       <c r="AK35" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B36" s="178" t="s">
-        <v>1001</v>
+      <c r="B36" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D36" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>292</v>
@@ -11746,7 +11745,7 @@
         <v>798</v>
       </c>
       <c r="R36" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>645</v>
@@ -11764,7 +11763,7 @@
         <v>852</v>
       </c>
       <c r="AC36" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI36" s="3" t="s">
         <v>207</v>
@@ -11773,21 +11772,21 @@
         <v>190</v>
       </c>
       <c r="AK36" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B37" s="178" t="s">
-        <v>1001</v>
+      <c r="B37" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D37" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>292</v>
@@ -11805,7 +11804,7 @@
         <v>798</v>
       </c>
       <c r="R37" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S37" s="12" t="s">
         <v>645</v>
@@ -11823,7 +11822,7 @@
         <v>852</v>
       </c>
       <c r="AC37" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI37" s="3" t="s">
         <v>207</v>
@@ -11832,21 +11831,21 @@
         <v>190</v>
       </c>
       <c r="AK37" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B38" s="178" t="s">
-        <v>1001</v>
+      <c r="B38" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="D38" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>292</v>
@@ -11864,7 +11863,7 @@
         <v>798</v>
       </c>
       <c r="R38" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="S38" s="12" t="s">
         <v>645</v>
@@ -11882,7 +11881,7 @@
         <v>852</v>
       </c>
       <c r="AC38" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AI38" s="3" t="s">
         <v>207</v>
@@ -11891,21 +11890,21 @@
         <v>190</v>
       </c>
       <c r="AK38" s="174" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B39" s="178" t="s">
-        <v>998</v>
+      <c r="B39" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D39" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>292</v>
@@ -11923,7 +11922,7 @@
         <v>801</v>
       </c>
       <c r="R39" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S39" s="12" t="s">
         <v>645</v>
@@ -11941,7 +11940,7 @@
         <v>852</v>
       </c>
       <c r="AC39" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI39" s="3" t="s">
         <v>207</v>
@@ -11950,21 +11949,21 @@
         <v>190</v>
       </c>
       <c r="AK39" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B40" s="178" t="s">
-        <v>998</v>
+      <c r="B40" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D40" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>292</v>
@@ -11982,7 +11981,7 @@
         <v>801</v>
       </c>
       <c r="R40" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S40" s="12" t="s">
         <v>645</v>
@@ -12000,7 +11999,7 @@
         <v>852</v>
       </c>
       <c r="AC40" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI40" s="3" t="s">
         <v>207</v>
@@ -12009,21 +12008,21 @@
         <v>190</v>
       </c>
       <c r="AK40" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B41" s="178" t="s">
-        <v>998</v>
+      <c r="B41" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D41" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>292</v>
@@ -12041,7 +12040,7 @@
         <v>801</v>
       </c>
       <c r="R41" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S41" s="12" t="s">
         <v>645</v>
@@ -12059,7 +12058,7 @@
         <v>852</v>
       </c>
       <c r="AC41" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI41" s="3" t="s">
         <v>207</v>
@@ -12068,21 +12067,21 @@
         <v>190</v>
       </c>
       <c r="AK41" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B42" s="178" t="s">
-        <v>998</v>
+      <c r="B42" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D42" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>292</v>
@@ -12100,7 +12099,7 @@
         <v>801</v>
       </c>
       <c r="R42" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S42" s="12" t="s">
         <v>645</v>
@@ -12118,7 +12117,7 @@
         <v>852</v>
       </c>
       <c r="AC42" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI42" s="3" t="s">
         <v>207</v>
@@ -12127,21 +12126,21 @@
         <v>190</v>
       </c>
       <c r="AK42" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B43" s="178" t="s">
-        <v>998</v>
+      <c r="B43" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D43" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>292</v>
@@ -12159,7 +12158,7 @@
         <v>801</v>
       </c>
       <c r="R43" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>645</v>
@@ -12177,7 +12176,7 @@
         <v>852</v>
       </c>
       <c r="AC43" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI43" s="3" t="s">
         <v>207</v>
@@ -12186,21 +12185,21 @@
         <v>190</v>
       </c>
       <c r="AK43" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="123" t="s">
         <v>989</v>
       </c>
-      <c r="B44" s="178" t="s">
-        <v>998</v>
+      <c r="B44" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="D44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>1044</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>1050</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>292</v>
@@ -12218,7 +12217,7 @@
         <v>801</v>
       </c>
       <c r="R44" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>645</v>
@@ -12236,7 +12235,7 @@
         <v>852</v>
       </c>
       <c r="AC44" s="175" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AI44" s="3" t="s">
         <v>207</v>
@@ -12245,7 +12244,7 @@
         <v>190</v>
       </c>
       <c r="AK44" s="174" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
@@ -20385,16 +20384,16 @@
   <dimension ref="A1:DJ987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="BS4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.90625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8" style="111" customWidth="1"/>
@@ -20457,7 +20456,7 @@
     <col min="76" max="76" width="12.6328125" style="3" customWidth="1"/>
     <col min="77" max="77" width="13.1796875" style="3" customWidth="1"/>
     <col min="78" max="78" width="26.1796875" style="3" customWidth="1"/>
-    <col min="79" max="79" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.1796875" style="3" customWidth="1"/>
     <col min="80" max="80" width="9.453125" style="3" customWidth="1"/>
     <col min="81" max="81" width="12.6328125" style="3" customWidth="1"/>
     <col min="82" max="83" width="11.36328125" style="3" customWidth="1"/>
@@ -21475,14 +21474,14 @@
       <c r="A4" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B4" s="171" t="s">
-        <v>999</v>
+      <c r="B4" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C4" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E4" s="110">
         <v>2014</v>
@@ -21498,9 +21497,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5"/>
+        <v>22.7</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -21511,15 +21509,21 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4">
-        <v>3.57</v>
+      <c r="V4" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W4" s="5">
+        <v>31</v>
+      </c>
+      <c r="X4" s="3">
+        <v>3.6</v>
       </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -21578,7 +21582,7 @@
       <c r="CD4" s="5"/>
       <c r="CE4" s="5"/>
       <c r="CF4" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="CG4" s="5"/>
       <c r="CH4" s="5"/>
@@ -21614,14 +21618,14 @@
       <c r="A5" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="179" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C5" t="s">
         <v>999</v>
       </c>
-      <c r="C5" t="s">
-        <v>1005</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E5" s="110">
         <v>2014</v>
@@ -21637,9 +21641,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5"/>
+        <v>27.3</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -21650,15 +21653,21 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5">
-        <v>3.57</v>
+      <c r="V5" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W5" s="5">
+        <v>31</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3.6</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -21717,7 +21726,7 @@
       <c r="CD5" s="5"/>
       <c r="CE5" s="5"/>
       <c r="CF5" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="CG5" s="5"/>
       <c r="CH5" s="5"/>
@@ -21753,14 +21762,14 @@
       <c r="A6" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B6" s="171" t="s">
-        <v>999</v>
+      <c r="B6" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="110">
         <v>2014</v>
@@ -21776,9 +21785,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>28.2</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -21789,15 +21797,21 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6">
-        <v>3.57</v>
+      <c r="V6" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W6" s="5">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3">
+        <v>3.6</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -21856,7 +21870,7 @@
       <c r="CD6" s="5"/>
       <c r="CE6" s="5"/>
       <c r="CF6" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="CG6" s="5"/>
       <c r="CH6" s="5"/>
@@ -21888,18 +21902,18 @@
       <c r="DI6" s="5"/>
       <c r="DJ6" s="5"/>
     </row>
-    <row r="7" spans="1:114" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B7" s="171" t="s">
-        <v>999</v>
+      <c r="B7" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C7" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="110">
         <v>2015</v>
@@ -21915,9 +21929,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>30</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>28</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -21928,15 +21941,21 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7">
-        <v>3.57</v>
+      <c r="V7" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W7" s="5">
+        <v>31</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3.6</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="AB7" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -21995,7 +22014,7 @@
       <c r="CD7" s="5"/>
       <c r="CE7" s="5"/>
       <c r="CF7" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="CG7" s="5"/>
       <c r="CH7" s="5"/>
@@ -22027,18 +22046,18 @@
       <c r="DI7" s="5"/>
       <c r="DJ7" s="5"/>
     </row>
-    <row r="8" spans="1:114" ht="30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B8" s="171" t="s">
-        <v>999</v>
+      <c r="B8" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C8" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="110">
         <v>2015</v>
@@ -22054,9 +22073,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5"/>
+        <v>25</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -22067,15 +22085,21 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8">
-        <v>3.57</v>
+      <c r="V8" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W8" s="5">
+        <v>31</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3.6</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -22134,7 +22158,7 @@
       <c r="CD8" s="5"/>
       <c r="CE8" s="5"/>
       <c r="CF8" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="CG8" s="5"/>
       <c r="CH8" s="5"/>
@@ -22166,18 +22190,18 @@
       <c r="DI8" s="5"/>
       <c r="DJ8" s="5"/>
     </row>
-    <row r="9" spans="1:114" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B9" s="171" t="s">
-        <v>999</v>
+      <c r="B9" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C9" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="110">
         <v>2015</v>
@@ -22193,31 +22217,41 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>30</v>
-      </c>
-      <c r="X9">
-        <v>3.57</v>
-      </c>
-      <c r="AB9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="V9" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W9" s="5">
+        <v>31</v>
+      </c>
+      <c r="X9" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="AB9" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA9">
         <v>3.1968962169999999</v>
       </c>
       <c r="CF9" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:114" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B10" s="171" t="s">
-        <v>999</v>
+      <c r="B10" s="179" t="s">
+        <v>1107</v>
       </c>
       <c r="C10" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E10" s="110">
         <v>2015</v>
@@ -22233,31 +22267,41 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>30</v>
-      </c>
-      <c r="X10">
-        <v>3.57</v>
-      </c>
-      <c r="AB10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="V10" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W10" s="5">
+        <v>31</v>
+      </c>
+      <c r="X10" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="AB10" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA10">
         <v>3.5039447730000002</v>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B11" s="172" t="s">
-        <v>1002</v>
+      <c r="B11" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E11" s="110">
         <v>2019</v>
@@ -22275,29 +22319,39 @@
       <c r="J11" s="8">
         <v>30</v>
       </c>
-      <c r="X11">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="V11" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W11" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X11" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="AB11" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA11">
         <v>3.552538964</v>
       </c>
       <c r="CF11" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B12" s="172" t="s">
-        <v>1002</v>
+      <c r="B12" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C12" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E12" s="110">
         <v>2019</v>
@@ -22313,31 +22367,41 @@
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <v>30</v>
-      </c>
-      <c r="X12">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB12" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="V12" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W12" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X12" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="AB12" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA12">
         <v>8.7660552270000007</v>
       </c>
       <c r="CF12" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B13" s="172" t="s">
-        <v>1002</v>
+      <c r="B13" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C13" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E13" s="110">
         <v>2019</v>
@@ -22353,31 +22417,41 @@
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>30</v>
-      </c>
-      <c r="X13">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB13" s="5"/>
+        <v>29.5</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="V13" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W13" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X13" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="AB13" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA13">
         <v>8.6469839680000007</v>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B14" s="172" t="s">
-        <v>1002</v>
+      <c r="B14" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C14" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E14" s="110">
         <v>2019</v>
@@ -22395,29 +22469,39 @@
       <c r="J14" s="8">
         <v>30</v>
       </c>
-      <c r="X14">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="V14" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W14" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X14" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="AB14" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA14">
         <v>8.9566369049999999</v>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B15" s="172" t="s">
-        <v>1002</v>
+      <c r="B15" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C15" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E15" s="110">
         <v>2019</v>
@@ -22433,31 +22517,41 @@
         <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>30</v>
-      </c>
-      <c r="X15">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB15" s="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="V15" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W15" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X15" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="AB15" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA15">
         <v>10.778115229999999</v>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:114" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B16" s="172" t="s">
-        <v>1002</v>
+      <c r="B16" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C16" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="110">
         <v>2019</v>
@@ -22473,31 +22567,41 @@
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <v>30</v>
-      </c>
-      <c r="X16">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB16" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="V16" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W16" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X16" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="AB16" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA16">
         <v>11.354722219999999</v>
       </c>
       <c r="CF16" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B17" s="172" t="s">
-        <v>1002</v>
+      <c r="B17" s="179" t="s">
+        <v>1110</v>
       </c>
       <c r="C17" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E17" s="110">
         <v>2019</v>
@@ -22513,31 +22617,41 @@
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <v>30</v>
-      </c>
-      <c r="X17">
-        <v>36.985714285714302</v>
-      </c>
-      <c r="AB17" s="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="V17" s="3">
+        <v>9.92068965517241</v>
+      </c>
+      <c r="W17" s="3">
+        <v>53.034482758620697</v>
+      </c>
+      <c r="X17" s="3">
+        <v>37.0448275862069</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="AB17" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="CA17">
         <v>12.379215500000001</v>
       </c>
       <c r="CF17" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B18" s="172" t="s">
-        <v>1000</v>
+      <c r="B18" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C18" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E18" s="110">
         <v>2014</v>
@@ -22553,31 +22667,41 @@
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>30</v>
-      </c>
-      <c r="X18">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB18" s="5"/>
+        <v>28.5</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="V18" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W18" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X18" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="AB18" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA18">
         <v>4.5826341230000001</v>
       </c>
       <c r="CF18" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B19" s="172" t="s">
-        <v>1000</v>
+      <c r="B19" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E19" s="110">
         <v>2014</v>
@@ -22593,31 +22717,41 @@
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>30</v>
-      </c>
-      <c r="X19">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB19" s="5"/>
+        <v>25.7</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="V19" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W19" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X19" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="AB19" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA19">
         <v>4.5624595790000004</v>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B20" s="172" t="s">
-        <v>1000</v>
+      <c r="B20" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C20" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E20" s="110">
         <v>2014</v>
@@ -22633,31 +22767,41 @@
         <v>0</v>
       </c>
       <c r="J20" s="8">
-        <v>30</v>
-      </c>
-      <c r="X20">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB20" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="V20" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W20" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X20" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="AB20" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA20">
         <v>2.6959152799999999</v>
       </c>
       <c r="CF20" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B21" s="172" t="s">
-        <v>1000</v>
+      <c r="B21" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C21" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E21" s="110">
         <v>2014</v>
@@ -22673,31 +22817,41 @@
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <v>30</v>
-      </c>
-      <c r="X21">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB21" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="V21" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W21" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X21" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="AB21" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA21">
         <v>4.5704764239999998</v>
       </c>
       <c r="CF21" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B22" s="172" t="s">
-        <v>1000</v>
+      <c r="B22" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C22" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E22" s="110">
         <v>2014</v>
@@ -22713,31 +22867,41 @@
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <v>30</v>
-      </c>
-      <c r="X22">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB22" s="5"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="V22" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W22" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X22" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="AB22" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA22">
         <v>2.8550222660000002</v>
       </c>
       <c r="CF22" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="172" t="s">
-        <v>1000</v>
+      <c r="B23" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C23" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E23" s="110">
         <v>2014</v>
@@ -22753,31 +22917,41 @@
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <v>30</v>
-      </c>
-      <c r="X23">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB23" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="V23" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W23" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X23" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="AB23" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA23">
         <v>4.7493983399999999</v>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B24" s="172" t="s">
-        <v>1000</v>
+      <c r="B24" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C24" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E24" s="110">
         <v>2018</v>
@@ -22793,31 +22967,41 @@
         <v>0</v>
       </c>
       <c r="J24" s="8">
-        <v>30</v>
-      </c>
-      <c r="X24">
-        <v>5.4625000000000004</v>
-      </c>
-      <c r="AB24" s="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="V24" s="3">
+        <v>66.809090909090898</v>
+      </c>
+      <c r="W24" s="3">
+        <v>28.263636363636401</v>
+      </c>
+      <c r="X24" s="3">
+        <v>4.9272727272727304</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="AB24" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA24">
         <v>5.9240774260000002</v>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B25" s="172" t="s">
-        <v>1000</v>
+      <c r="B25" s="179" t="s">
+        <v>1108</v>
       </c>
       <c r="C25" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E25" s="110">
         <v>2018</v>
@@ -22833,31 +23017,41 @@
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>30</v>
-      </c>
-      <c r="X25">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB25" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="V25" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W25" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X25" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="AB25" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA25">
         <v>19.988892230000001</v>
       </c>
       <c r="CF25" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B26" s="172" t="s">
-        <v>1003</v>
+      <c r="B26" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C26" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E26" s="110">
         <v>2018</v>
@@ -22873,31 +23067,41 @@
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <v>30</v>
-      </c>
-      <c r="X26">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB26" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="V26" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W26" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X26" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="AB26" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA26">
         <v>15.100485150000001</v>
       </c>
       <c r="CF26" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B27" s="172" t="s">
-        <v>1003</v>
+      <c r="B27" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C27" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E27" s="110">
         <v>2018</v>
@@ -22915,29 +23119,39 @@
       <c r="J27" s="8">
         <v>30</v>
       </c>
-      <c r="X27">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="V27" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W27" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X27" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="AB27" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA27">
         <v>3.2489919349999998</v>
       </c>
       <c r="CF27" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B28" s="172" t="s">
-        <v>1003</v>
+      <c r="B28" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C28" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E28" s="110">
         <v>2018</v>
@@ -22953,31 +23167,41 @@
         <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>30</v>
-      </c>
-      <c r="X28">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB28" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="V28" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W28" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X28" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="AB28" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA28">
         <v>13.08649709</v>
       </c>
       <c r="CF28" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B29" s="172" t="s">
-        <v>1003</v>
+      <c r="B29" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C29" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E29" s="110">
         <v>2018</v>
@@ -22995,29 +23219,39 @@
       <c r="J29" s="8">
         <v>30</v>
       </c>
-      <c r="X29">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="V29" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W29" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X29" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="AB29" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA29">
         <v>9.8497790060000003</v>
       </c>
       <c r="CF29" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B30" s="172" t="s">
-        <v>1003</v>
+      <c r="B30" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C30" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E30" s="110">
         <v>2018</v>
@@ -23035,29 +23269,39 @@
       <c r="J30" s="8">
         <v>30</v>
       </c>
-      <c r="X30">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="V30" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W30" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X30" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="AB30" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA30">
         <v>8.3347826089999995</v>
       </c>
       <c r="CF30" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:84" ht="30" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B31" s="172" t="s">
-        <v>1003</v>
+      <c r="B31" s="179" t="s">
+        <v>1111</v>
       </c>
       <c r="C31" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E31" s="110">
         <v>2018</v>
@@ -23075,29 +23319,39 @@
       <c r="J31" s="8">
         <v>30</v>
       </c>
-      <c r="X31">
-        <v>44.661764705882398</v>
-      </c>
-      <c r="AB31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="V31" s="3">
+        <v>17.795000000000002</v>
+      </c>
+      <c r="W31" s="3">
+        <v>39.07</v>
+      </c>
+      <c r="X31" s="3">
+        <v>43.134999999999998</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="AB31" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="CA31">
         <v>4.2517120620000002</v>
       </c>
       <c r="CF31" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B32" s="171" t="s">
-        <v>1001</v>
+      <c r="B32" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C32" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E32" s="110">
         <v>2017</v>
@@ -23113,31 +23367,41 @@
         <v>0</v>
       </c>
       <c r="J32" s="8">
-        <v>30</v>
-      </c>
-      <c r="X32">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB32" s="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="V32" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W32" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X32" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="AB32" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA32">
         <v>3.8614157530000002</v>
       </c>
       <c r="CF32" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B33" s="171" t="s">
-        <v>1001</v>
+      <c r="B33" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C33" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E33" s="110">
         <v>2017</v>
@@ -23153,31 +23417,41 @@
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <v>30</v>
-      </c>
-      <c r="X33">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB33" s="5"/>
+        <v>29.1</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="V33" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W33" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X33" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y33" s="5"/>
+      <c r="AB33" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA33">
         <v>2.999023438</v>
       </c>
       <c r="CF33" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B34" s="171" t="s">
-        <v>1001</v>
+      <c r="B34" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C34" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E34" s="110">
         <v>2017</v>
@@ -23193,31 +23467,41 @@
         <v>0</v>
       </c>
       <c r="J34" s="8">
-        <v>30</v>
-      </c>
-      <c r="X34">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB34" s="5"/>
+        <v>27.7</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="V34" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W34" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X34" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="AB34" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA34">
         <v>2.5634085209999999</v>
       </c>
       <c r="CF34" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B35" s="171" t="s">
-        <v>1001</v>
+      <c r="B35" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C35" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="110">
         <v>2017</v>
@@ -23233,31 +23517,41 @@
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <v>30</v>
-      </c>
-      <c r="X35">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB35" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="V35" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W35" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X35" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y35" s="5"/>
+      <c r="AB35" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA35">
         <v>4.8657220309999998</v>
       </c>
       <c r="CF35" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B36" s="171" t="s">
-        <v>1001</v>
+      <c r="B36" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C36" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E36" s="110">
         <v>2017</v>
@@ -23273,31 +23567,41 @@
         <v>0</v>
       </c>
       <c r="J36" s="8">
-        <v>30</v>
-      </c>
-      <c r="X36">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB36" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="V36" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W36" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X36" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y36" s="5"/>
+      <c r="AB36" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA36">
         <v>1.244312562</v>
       </c>
       <c r="CF36" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B37" s="171" t="s">
-        <v>1001</v>
+      <c r="B37" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C37" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E37" s="110">
         <v>2017</v>
@@ -23313,31 +23617,41 @@
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <v>30</v>
-      </c>
-      <c r="X37">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB37" s="5"/>
+        <v>26.8</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="V37" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W37" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X37" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y37" s="5"/>
+      <c r="AB37" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA37">
         <v>2.24975025</v>
       </c>
       <c r="CF37" s="5" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:84" ht="50" x14ac:dyDescent="0.35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B38" s="171" t="s">
-        <v>1001</v>
+      <c r="B38" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="C38" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E38" s="110">
         <v>2017</v>
@@ -23353,31 +23667,41 @@
         <v>0</v>
       </c>
       <c r="J38" s="8">
-        <v>30</v>
-      </c>
-      <c r="X38">
-        <v>17.397368421052601</v>
-      </c>
-      <c r="AB38" s="5"/>
+        <v>29.6</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="V38" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="W38" s="3">
+        <v>25.224137931034502</v>
+      </c>
+      <c r="X38" s="3">
+        <v>17.3758620689655</v>
+      </c>
+      <c r="Y38" s="5"/>
+      <c r="AB38" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="CA38">
         <v>1.8329238329999999</v>
       </c>
       <c r="CF38" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="39" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B39" s="171" t="s">
-        <v>998</v>
+      <c r="B39" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C39" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E39" s="110">
         <v>2020</v>
@@ -23393,31 +23717,41 @@
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <v>30</v>
-      </c>
-      <c r="X39">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB39" s="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="V39" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W39" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X39" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y39" s="5"/>
+      <c r="AB39" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA39">
         <v>3.4445525290000001</v>
       </c>
       <c r="CF39" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B40" s="171" t="s">
-        <v>998</v>
+      <c r="B40" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C40" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E40" s="110">
         <v>2015</v>
@@ -23433,31 +23767,41 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>30</v>
-      </c>
-      <c r="X40">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB40" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="V40" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W40" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X40" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y40" s="5"/>
+      <c r="AB40" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA40">
         <v>6.2638400790000004</v>
       </c>
       <c r="CF40" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="41" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B41" s="171" t="s">
-        <v>998</v>
+      <c r="B41" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C41" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E41" s="110">
         <v>2020</v>
@@ -23475,29 +23819,39 @@
       <c r="J41" s="8">
         <v>30</v>
       </c>
-      <c r="X41">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="V41" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W41" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X41" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y41" s="5"/>
+      <c r="AB41" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA41">
         <v>2.6309639730000001</v>
       </c>
       <c r="CF41" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="42" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B42" s="171" t="s">
-        <v>998</v>
+      <c r="B42" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C42" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E42" s="110">
         <v>2020</v>
@@ -23513,31 +23867,41 @@
         <v>0</v>
       </c>
       <c r="J42" s="8">
-        <v>30</v>
-      </c>
-      <c r="X42">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB42" s="5"/>
+        <v>30.3</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="V42" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W42" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X42" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y42" s="5"/>
+      <c r="AB42" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA42">
         <v>3.162175902</v>
       </c>
       <c r="CF42" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B43" s="171" t="s">
-        <v>998</v>
+      <c r="B43" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C43" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E43" s="110">
         <v>2020</v>
@@ -23553,31 +23917,41 @@
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>30</v>
-      </c>
-      <c r="X43">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB43" s="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="V43" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W43" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X43" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y43" s="5"/>
+      <c r="AB43" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA43">
         <v>2.2619279450000001</v>
       </c>
       <c r="CF43" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:84" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B44" s="171" t="s">
-        <v>998</v>
+      <c r="B44" s="179" t="s">
+        <v>1106</v>
       </c>
       <c r="C44" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E44" s="110">
         <v>2020</v>
@@ -23593,51 +23967,68 @@
         <v>0</v>
       </c>
       <c r="J44" s="8">
-        <v>30</v>
-      </c>
-      <c r="X44">
-        <v>5.3666666666666698</v>
-      </c>
-      <c r="AB44" s="5"/>
+        <v>30.9</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="V44" s="3">
+        <v>76.581818181818207</v>
+      </c>
+      <c r="W44" s="3">
+        <v>18.2545454545455</v>
+      </c>
+      <c r="X44" s="3">
+        <v>5.1636363636363596</v>
+      </c>
+      <c r="Y44" s="5"/>
+      <c r="AB44" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="CA44">
         <v>4.2241120560000001</v>
       </c>
       <c r="CF44" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="45" spans="1:84" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H45" s="5"/>
+      <c r="L45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="CA45"/>
     </row>
     <row r="46" spans="1:84" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H46" s="5"/>
+      <c r="L46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="CA46"/>
     </row>
     <row r="47" spans="1:84" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H47" s="5"/>
+      <c r="L47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="CA47"/>
     </row>
     <row r="48" spans="1:84" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H48" s="5"/>
+      <c r="L48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="CA48"/>
     </row>
     <row r="49" spans="8:79" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H49" s="5"/>
+      <c r="L49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="CA49"/>
     </row>
     <row r="50" spans="8:79" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H50" s="5"/>
+      <c r="L50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="CA50"/>
     </row>
     <row r="51" spans="8:79" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H51" s="5"/>
+      <c r="L51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="CA51"/>
     </row>
@@ -25632,13 +26023,13 @@
   <dimension ref="A1:BZ1004"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="33.81640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="9" style="9" customWidth="1"/>
@@ -26369,19 +26760,19 @@
         <v>989</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E4" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>967</v>
@@ -26396,7 +26787,7 @@
         <v>1.7</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>239</v>
@@ -26434,7 +26825,7 @@
         <v>-26.3</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF4">
         <v>187535</v>
@@ -26485,19 +26876,19 @@
         <v>989</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>1005</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E5" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>967</v>
@@ -26512,7 +26903,7 @@
         <v>1.7</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>239</v>
@@ -26550,7 +26941,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF5">
         <v>187536</v>
@@ -26601,19 +26992,19 @@
         <v>989</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>967</v>
@@ -26628,7 +27019,7 @@
         <v>1.7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>239</v>
@@ -26666,7 +27057,7 @@
         <v>-26.1</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF6">
         <v>187537</v>
@@ -26717,19 +27108,19 @@
         <v>989</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>967</v>
@@ -26744,7 +27135,7 @@
         <v>1.7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>239</v>
@@ -26782,7 +27173,7 @@
         <v>-26.3</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF7">
         <v>187538</v>
@@ -26833,19 +27224,19 @@
         <v>989</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>967</v>
@@ -26860,7 +27251,7 @@
         <v>1.7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>239</v>
@@ -26898,7 +27289,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF8">
         <v>187539</v>
@@ -26949,19 +27340,19 @@
         <v>989</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>967</v>
@@ -26976,7 +27367,7 @@
         <v>1.7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>239</v>
@@ -27014,7 +27405,7 @@
         <v>-26.2</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF9">
         <v>187496</v>
@@ -27065,19 +27456,19 @@
         <v>989</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>967</v>
@@ -27092,7 +27483,7 @@
         <v>1.7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>239</v>
@@ -27130,7 +27521,7 @@
         <v>-26.2</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF10">
         <v>187540</v>
@@ -27181,19 +27572,19 @@
         <v>989</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E11" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>967</v>
@@ -27208,7 +27599,7 @@
         <v>1.7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>239</v>
@@ -27246,7 +27637,7 @@
         <v>-26.4</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF11">
         <v>187497</v>
@@ -27297,19 +27688,19 @@
         <v>989</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E12" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>967</v>
@@ -27324,7 +27715,7 @@
         <v>1.7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>239</v>
@@ -27362,7 +27753,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF12">
         <v>187498</v>
@@ -27413,19 +27804,19 @@
         <v>989</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E13" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>967</v>
@@ -27440,7 +27831,7 @@
         <v>1.7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>239</v>
@@ -27478,7 +27869,7 @@
         <v>-26</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF13">
         <v>187541</v>
@@ -27529,19 +27920,19 @@
         <v>989</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E14" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>967</v>
@@ -27556,7 +27947,7 @@
         <v>1.7</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>239</v>
@@ -27594,7 +27985,7 @@
         <v>-26.5</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF14">
         <v>187542</v>
@@ -27645,19 +28036,19 @@
         <v>989</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E15" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>967</v>
@@ -27672,7 +28063,7 @@
         <v>1.7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>239</v>
@@ -27710,7 +28101,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF15">
         <v>187499</v>
@@ -27761,19 +28152,19 @@
         <v>989</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>967</v>
@@ -27788,7 +28179,7 @@
         <v>1.7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>239</v>
@@ -27826,7 +28217,7 @@
         <v>-26.1</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF16">
         <v>187543</v>
@@ -27877,19 +28268,19 @@
         <v>989</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>967</v>
@@ -27904,7 +28295,7 @@
         <v>1.7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>239</v>
@@ -27942,7 +28333,7 @@
         <v>-26.5</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF17">
         <v>187544</v>
@@ -27993,19 +28384,19 @@
         <v>989</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E18" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>967</v>
@@ -28020,7 +28411,7 @@
         <v>1.7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>239</v>
@@ -28058,7 +28449,7 @@
         <v>-26.7</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF18">
         <v>187545</v>
@@ -28109,19 +28500,19 @@
         <v>989</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E19" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>967</v>
@@ -28136,7 +28527,7 @@
         <v>1.7</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>239</v>
@@ -28174,7 +28565,7 @@
         <v>-26.4</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF19">
         <v>187546</v>
@@ -28225,19 +28616,19 @@
         <v>989</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>967</v>
@@ -28252,7 +28643,7 @@
         <v>1.7</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>239</v>
@@ -28290,7 +28681,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF20">
         <v>187547</v>
@@ -28341,19 +28732,19 @@
         <v>989</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E21" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>967</v>
@@ -28368,7 +28759,7 @@
         <v>1.7</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>239</v>
@@ -28406,7 +28797,7 @@
         <v>-26.9</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF21">
         <v>187548</v>
@@ -28456,20 +28847,20 @@
       <c r="A22" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>1000</v>
+      <c r="B22" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E22" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>967</v>
@@ -28484,7 +28875,7 @@
         <v>1.7</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>239</v>
@@ -28512,7 +28903,7 @@
         <v>-26.9</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF22">
         <v>187549</v>
@@ -28537,20 +28928,20 @@
       <c r="A23" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1000</v>
+      <c r="B23" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E23" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>967</v>
@@ -28565,7 +28956,7 @@
         <v>1.7</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>239</v>
@@ -28593,7 +28984,7 @@
         <v>-26.6</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF23">
         <v>187550</v>
@@ -28618,20 +29009,20 @@
       <c r="A24" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>1000</v>
+      <c r="B24" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E24" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>967</v>
@@ -28646,7 +29037,7 @@
         <v>1.7</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>239</v>
@@ -28674,7 +29065,7 @@
         <v>-26.5</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF24">
         <v>187551</v>
@@ -28699,20 +29090,20 @@
       <c r="A25" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>1000</v>
+      <c r="B25" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E25" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>967</v>
@@ -28727,7 +29118,7 @@
         <v>1.7</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>239</v>
@@ -28755,7 +29146,7 @@
         <v>-25.7</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF25">
         <v>187552</v>
@@ -28780,20 +29171,20 @@
       <c r="A26" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>1003</v>
+      <c r="B26" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E26" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>967</v>
@@ -28808,7 +29199,7 @@
         <v>1.7</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>239</v>
@@ -28836,7 +29227,7 @@
         <v>-26.1</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF26">
         <v>187553</v>
@@ -28861,20 +29252,20 @@
       <c r="A27" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>1003</v>
+      <c r="B27" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E27" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>967</v>
@@ -28889,7 +29280,7 @@
         <v>1.7</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>239</v>
@@ -28917,7 +29308,7 @@
         <v>-27.8</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF27">
         <v>187500</v>
@@ -28942,20 +29333,20 @@
       <c r="A28" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>1003</v>
+      <c r="B28" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E28" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>967</v>
@@ -28970,7 +29361,7 @@
         <v>1.7</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>239</v>
@@ -28998,7 +29389,7 @@
         <v>-26.4</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF28">
         <v>187554</v>
@@ -29023,20 +29414,20 @@
       <c r="A29" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>1003</v>
+      <c r="B29" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E29" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>967</v>
@@ -29051,7 +29442,7 @@
         <v>1.7</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>239</v>
@@ -29079,7 +29470,7 @@
         <v>-26.3</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF29">
         <v>187501</v>
@@ -29104,20 +29495,20 @@
       <c r="A30" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>1003</v>
+      <c r="B30" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E30" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>967</v>
@@ -29132,7 +29523,7 @@
         <v>1.7</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>239</v>
@@ -29160,7 +29551,7 @@
         <v>-26.5</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF30">
         <v>187502</v>
@@ -29185,20 +29576,20 @@
       <c r="A31" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>1003</v>
+      <c r="B31" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E31" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>967</v>
@@ -29213,7 +29604,7 @@
         <v>1.7</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>239</v>
@@ -29241,7 +29632,7 @@
         <v>-26.1</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF31">
         <v>187503</v>
@@ -29266,20 +29657,20 @@
       <c r="A32" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>1001</v>
+      <c r="B32" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E32" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>967</v>
@@ -29294,7 +29685,7 @@
         <v>1.7</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>239</v>
@@ -29322,7 +29713,7 @@
         <v>-26</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF32">
         <v>187504</v>
@@ -29347,20 +29738,20 @@
       <c r="A33" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>1001</v>
+      <c r="B33" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E33" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>967</v>
@@ -29375,7 +29766,7 @@
         <v>1.7</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>239</v>
@@ -29403,7 +29794,7 @@
         <v>-26.7</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF33">
         <v>187505</v>
@@ -29428,20 +29819,20 @@
       <c r="A34" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>1001</v>
+      <c r="B34" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E34" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>967</v>
@@ -29456,7 +29847,7 @@
         <v>1.7</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>239</v>
@@ -29484,7 +29875,7 @@
         <v>-26.4</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF34">
         <v>187555</v>
@@ -29509,20 +29900,20 @@
       <c r="A35" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>1001</v>
+      <c r="B35" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>967</v>
@@ -29537,7 +29928,7 @@
         <v>1.7</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>239</v>
@@ -29565,7 +29956,7 @@
         <v>-25.8</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF35">
         <v>187556</v>
@@ -29590,20 +29981,20 @@
       <c r="A36" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>1001</v>
+      <c r="B36" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E36" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>967</v>
@@ -29618,7 +30009,7 @@
         <v>1.7</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>239</v>
@@ -29646,7 +30037,7 @@
         <v>-27.2</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF36">
         <v>187506</v>
@@ -29671,20 +30062,20 @@
       <c r="A37" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>1001</v>
+      <c r="B37" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E37" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>967</v>
@@ -29699,7 +30090,7 @@
         <v>1.7</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>239</v>
@@ -29727,7 +30118,7 @@
         <v>-27.2</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF37">
         <v>187507</v>
@@ -29752,20 +30143,20 @@
       <c r="A38" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>1001</v>
+      <c r="B38" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E38" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>967</v>
@@ -29780,7 +30171,7 @@
         <v>1.7</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>239</v>
@@ -29808,7 +30199,7 @@
         <v>-26.8</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF38">
         <v>187508</v>
@@ -29833,20 +30224,20 @@
       <c r="A39" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>998</v>
+      <c r="B39" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E39" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>967</v>
@@ -29861,7 +30252,7 @@
         <v>1.7</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>239</v>
@@ -29889,7 +30280,7 @@
         <v>-26</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF39">
         <v>187509</v>
@@ -29914,20 +30305,20 @@
       <c r="A40" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>998</v>
+      <c r="B40" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E40" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>967</v>
@@ -29942,7 +30333,7 @@
         <v>1.7</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>239</v>
@@ -29970,7 +30361,7 @@
         <v>-25.4</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF40">
         <v>187557</v>
@@ -29995,20 +30386,20 @@
       <c r="A41" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>998</v>
+      <c r="B41" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E41" s="175" t="s">
         <v>1101</v>
       </c>
-      <c r="E41" s="175" t="s">
-        <v>1107</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>967</v>
@@ -30023,7 +30414,7 @@
         <v>1.7</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>239</v>
@@ -30051,7 +30442,7 @@
         <v>-27</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF41">
         <v>187558</v>
@@ -30076,20 +30467,20 @@
       <c r="A42" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>998</v>
+      <c r="B42" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E42" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>967</v>
@@ -30104,7 +30495,7 @@
         <v>1.7</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>239</v>
@@ -30132,7 +30523,7 @@
         <v>-26.5</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF42">
         <v>187510</v>
@@ -30157,20 +30548,20 @@
       <c r="A43" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>998</v>
+      <c r="B43" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E43" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>967</v>
@@ -30185,7 +30576,7 @@
         <v>1.7</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>239</v>
@@ -30213,7 +30604,7 @@
         <v>-26.2</v>
       </c>
       <c r="AE43" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF43">
         <v>187511</v>
@@ -30238,20 +30629,20 @@
       <c r="A44" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>998</v>
+      <c r="B44" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E44" s="175" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>967</v>
@@ -30266,7 +30657,7 @@
         <v>1.7</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>239</v>
@@ -30294,7 +30685,7 @@
         <v>-25.9</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AF44">
         <v>187559</v>
@@ -30320,19 +30711,19 @@
         <v>989</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>967</v>
@@ -30378,19 +30769,19 @@
         <v>989</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>1005</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>967</v>
@@ -30436,19 +30827,19 @@
         <v>989</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>967</v>
@@ -30494,19 +30885,19 @@
         <v>989</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>967</v>
@@ -30552,19 +30943,19 @@
         <v>989</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>967</v>
@@ -30610,19 +31001,19 @@
         <v>989</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>967</v>
@@ -30668,19 +31059,19 @@
         <v>989</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>967</v>
@@ -30726,19 +31117,19 @@
         <v>989</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>967</v>
@@ -30784,19 +31175,19 @@
         <v>989</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>967</v>
@@ -30842,19 +31233,19 @@
         <v>989</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>967</v>
@@ -30900,19 +31291,19 @@
         <v>989</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>967</v>
@@ -30958,19 +31349,19 @@
         <v>989</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>967</v>
@@ -31016,19 +31407,19 @@
         <v>989</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>967</v>
@@ -31074,19 +31465,19 @@
         <v>989</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>967</v>
@@ -31132,19 +31523,19 @@
         <v>989</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>967</v>
@@ -31190,19 +31581,19 @@
         <v>989</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>967</v>
@@ -31248,19 +31639,19 @@
         <v>989</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>967</v>
@@ -31306,19 +31697,19 @@
         <v>989</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>967</v>
@@ -31363,20 +31754,20 @@
       <c r="A63" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>1000</v>
+      <c r="B63" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>967</v>
@@ -31421,20 +31812,20 @@
       <c r="A64" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>1000</v>
+      <c r="B64" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>967</v>
@@ -31479,20 +31870,20 @@
       <c r="A65" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>1000</v>
+      <c r="B65" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>967</v>
@@ -31537,20 +31928,20 @@
       <c r="A66" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>1000</v>
+      <c r="B66" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>967</v>
@@ -31595,20 +31986,20 @@
       <c r="A67" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>1003</v>
+      <c r="B67" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>967</v>
@@ -31653,20 +32044,20 @@
       <c r="A68" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>1003</v>
+      <c r="B68" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>967</v>
@@ -31711,20 +32102,20 @@
       <c r="A69" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>1003</v>
+      <c r="B69" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>967</v>
@@ -31769,20 +32160,20 @@
       <c r="A70" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>1003</v>
+      <c r="B70" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>967</v>
@@ -31827,20 +32218,20 @@
       <c r="A71" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>1003</v>
+      <c r="B71" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>967</v>
@@ -31885,20 +32276,20 @@
       <c r="A72" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>1003</v>
+      <c r="B72" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>967</v>
@@ -31943,20 +32334,20 @@
       <c r="A73" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>1001</v>
+      <c r="B73" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>967</v>
@@ -32001,20 +32392,20 @@
       <c r="A74" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>1001</v>
+      <c r="B74" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>967</v>
@@ -32059,20 +32450,20 @@
       <c r="A75" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>1001</v>
+      <c r="B75" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>967</v>
@@ -32117,20 +32508,20 @@
       <c r="A76" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>1001</v>
+      <c r="B76" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>967</v>
@@ -32175,20 +32566,20 @@
       <c r="A77" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>1001</v>
+      <c r="B77" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>967</v>
@@ -32233,20 +32624,20 @@
       <c r="A78" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>1001</v>
+      <c r="B78" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>967</v>
@@ -32291,20 +32682,20 @@
       <c r="A79" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>1001</v>
+      <c r="B79" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>967</v>
@@ -32349,20 +32740,20 @@
       <c r="A80" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>998</v>
+      <c r="B80" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>967</v>
@@ -32407,20 +32798,20 @@
       <c r="A81" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>998</v>
+      <c r="B81" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>967</v>
@@ -32465,20 +32856,20 @@
       <c r="A82" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>998</v>
+      <c r="B82" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>967</v>
@@ -32523,20 +32914,20 @@
       <c r="A83" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>998</v>
+      <c r="B83" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>1108</v>
-      </c>
       <c r="F83" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>967</v>
@@ -32581,20 +32972,20 @@
       <c r="A84" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>998</v>
+      <c r="B84" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>967</v>
@@ -32639,20 +33030,20 @@
       <c r="A85" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>998</v>
+      <c r="B85" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>967</v>
@@ -32698,19 +33089,19 @@
         <v>989</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>964</v>
@@ -32756,19 +33147,19 @@
         <v>989</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>1005</v>
-      </c>
       <c r="D87" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>964</v>
@@ -32814,19 +33205,19 @@
         <v>989</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>964</v>
@@ -32872,19 +33263,19 @@
         <v>989</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>964</v>
@@ -32930,19 +33321,19 @@
         <v>989</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>964</v>
@@ -32988,19 +33379,19 @@
         <v>989</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>964</v>
@@ -33046,19 +33437,19 @@
         <v>989</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>964</v>
@@ -33104,19 +33495,19 @@
         <v>989</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>964</v>
@@ -33162,19 +33553,19 @@
         <v>989</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>964</v>
@@ -33220,19 +33611,19 @@
         <v>989</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>964</v>
@@ -33278,19 +33669,19 @@
         <v>989</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>964</v>
@@ -33336,19 +33727,19 @@
         <v>989</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>964</v>
@@ -33394,19 +33785,19 @@
         <v>989</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>964</v>
@@ -33452,19 +33843,19 @@
         <v>989</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>964</v>
@@ -33510,19 +33901,19 @@
         <v>989</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>964</v>
@@ -33568,19 +33959,19 @@
         <v>989</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>964</v>
@@ -33626,19 +34017,19 @@
         <v>989</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>964</v>
@@ -33684,19 +34075,19 @@
         <v>989</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>964</v>
@@ -33741,20 +34132,20 @@
       <c r="A104" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>1000</v>
+      <c r="B104" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>964</v>
@@ -33799,20 +34190,20 @@
       <c r="A105" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>1000</v>
+      <c r="B105" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>964</v>
@@ -33857,20 +34248,20 @@
       <c r="A106" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>1000</v>
+      <c r="B106" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>964</v>
@@ -33915,20 +34306,20 @@
       <c r="A107" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>1000</v>
+      <c r="B107" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>964</v>
@@ -33973,20 +34364,20 @@
       <c r="A108" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>1003</v>
+      <c r="B108" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>964</v>
@@ -34031,20 +34422,20 @@
       <c r="A109" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>1003</v>
+      <c r="B109" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>964</v>
@@ -34089,20 +34480,20 @@
       <c r="A110" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>1003</v>
+      <c r="B110" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>964</v>
@@ -34147,20 +34538,20 @@
       <c r="A111" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>1003</v>
+      <c r="B111" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>964</v>
@@ -34205,20 +34596,20 @@
       <c r="A112" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>1003</v>
+      <c r="B112" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>964</v>
@@ -34263,20 +34654,20 @@
       <c r="A113" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>1003</v>
+      <c r="B113" s="7" t="s">
+        <v>1111</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>964</v>
@@ -34321,20 +34712,20 @@
       <c r="A114" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>1001</v>
+      <c r="B114" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>964</v>
@@ -34379,20 +34770,20 @@
       <c r="A115" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>1001</v>
+      <c r="B115" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>964</v>
@@ -34437,20 +34828,20 @@
       <c r="A116" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>1001</v>
+      <c r="B116" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>964</v>
@@ -34495,20 +34886,20 @@
       <c r="A117" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>1001</v>
+      <c r="B117" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>964</v>
@@ -34553,20 +34944,20 @@
       <c r="A118" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>1001</v>
+      <c r="B118" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>964</v>
@@ -34611,20 +35002,20 @@
       <c r="A119" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>1001</v>
+      <c r="B119" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>964</v>
@@ -34669,20 +35060,20 @@
       <c r="A120" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>1001</v>
+      <c r="B120" s="7" t="s">
+        <v>1109</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>964</v>
@@ -34727,20 +35118,20 @@
       <c r="A121" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>998</v>
+      <c r="B121" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>964</v>
@@ -34785,20 +35176,20 @@
       <c r="A122" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>998</v>
+      <c r="B122" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>964</v>
@@ -34843,20 +35234,20 @@
       <c r="A123" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>998</v>
+      <c r="B123" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>964</v>
@@ -34901,20 +35292,20 @@
       <c r="A124" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>998</v>
+      <c r="B124" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>964</v>
@@ -34959,20 +35350,20 @@
       <c r="A125" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>998</v>
+      <c r="B125" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D125" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>1109</v>
-      </c>
       <c r="F125" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>964</v>
@@ -35017,20 +35408,20 @@
       <c r="A126" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>998</v>
+      <c r="B126" s="7" t="s">
+        <v>1106</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>964</v>
@@ -38634,17 +39025,17 @@
           </x14:formula1>
           <xm:sqref>C4:C1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
+          <x14:formula1>
+            <xm:f>OFFSET(site!$B$1,3,0,COUNTA(site!$B:$B)-2,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B127:B1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
           <x14:formula1>
             <xm:f>OFFSET(layer!$D$1,3,0,COUNTA(layer!$D:$D)-2,1)</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D1048576 F4:F126</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(site!$B$1,3,0,COUNTA(site!$B:$B)-2,1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-00000A000000}">
           <x14:formula1>
@@ -39668,17 +40059,17 @@
           </x14:formula1>
           <xm:sqref>C4:C1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+          <x14:formula1>
+            <xm:f>OFFSET(site!$B$1,3,0,COUNTA(site!$B:$B)-2,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B200</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000006000000}">
           <x14:formula1>
             <xm:f>OFFSET(layer!$D$1,3,0,COUNTA(layer!$D:$D)-2,1)</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(site!$B$1,3,0,COUNTA(site!$B:$B)-2,1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000009000000}">
           <x14:formula1>
